--- a/vacancie_01/_static/applicants/metadata1.xlsx
+++ b/vacancie_01/_static/applicants/metadata1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21540b8bb60256b0/Bachelorarbeit/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{E5E02536-CF29-47D6-9AA9-A6FACF7C2068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAFD9AC8-5553-466B-9FD3-218E58AA2CEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C73F71D-925F-466F-9284-D768430FCE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="214">
   <si>
     <t>string</t>
   </si>
@@ -317,9 +317,6 @@
     <t>categoircal</t>
   </si>
   <si>
-    <t>liste von Strings</t>
-  </si>
-  <si>
     <t>requirement_name</t>
   </si>
   <si>
@@ -365,9 +362,6 @@
     <t>requirement_point_is_8</t>
   </si>
   <si>
-    <t>applicant_a_requirement_expression</t>
-  </si>
-  <si>
     <t>applicant_b_requirement_expression</t>
   </si>
   <si>
@@ -407,18 +401,9 @@
     <t>['In 2 Monaten']</t>
   </si>
   <si>
-    <t>['In einen Monat']</t>
-  </si>
-  <si>
-    <t>['Sofort']</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>ab sofort'</t>
-  </si>
-  <si>
     <t>Gehaltsvorstellungen</t>
   </si>
   <si>
@@ -737,15 +722,9 @@
     <t>['Sehr gut']</t>
   </si>
   <si>
-    <t>gut'</t>
-  </si>
-  <si>
     <t>Belastbarkeit / Stressresistenz</t>
   </si>
   <si>
-    <t>sehr gut'</t>
-  </si>
-  <si>
     <t>Lernbereitschaft / Weiterbildungsmotivation</t>
   </si>
   <si>
@@ -767,9 +746,6 @@
     <t>Konfliktfähigkeit</t>
   </si>
   <si>
-    <t>befriedigend'</t>
-  </si>
-  <si>
     <t>Auftreten im Vorstellungsgespräch</t>
   </si>
   <si>
@@ -794,9 +770,6 @@
     <t>Motivation / Begründung für Bewerbung</t>
   </si>
   <si>
-    <t>mangelhaft'</t>
-  </si>
-  <si>
     <t>Kulturelle Passung / Werteverständnis</t>
   </si>
   <si>
@@ -824,88 +797,154 @@
     <t>['keine Nachtschricht', 'keine Frühschicht', 'keine Spätschicht']</t>
   </si>
   <si>
-    <t>In 3 Monaten</t>
-  </si>
-  <si>
-    <t>3 Jahre</t>
-  </si>
-  <si>
-    <t>Ausbildung zum Industriemechaniker</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>wenig Erfahrung Heidenheim und Siemens</t>
-  </si>
-  <si>
-    <t>wenig Erfahrung qualifiziert</t>
-  </si>
-  <si>
-    <t>Nur Serienfertigung</t>
-  </si>
-  <si>
-    <t>Sehr gut</t>
-  </si>
-  <si>
-    <t>Gut</t>
-  </si>
-  <si>
-    <t>Mangelhaft</t>
-  </si>
-  <si>
-    <t>flexibel</t>
-  </si>
-  <si>
-    <t>keine Frühschicht</t>
-  </si>
-  <si>
-    <t>In einem Monat</t>
-  </si>
-  <si>
-    <t>11 Jahre</t>
-  </si>
-  <si>
-    <t>Weiterbildung CNC-Fachkraft</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>Muttersprachler/in</t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>viel Erfahrung Heidenheim und Siemens, sowie weitere Erfahrungen</t>
-  </si>
-  <si>
-    <t>viel Erfahrung unqualifiziert</t>
-  </si>
-  <si>
-    <t>Nur Einzelteile</t>
-  </si>
-  <si>
-    <t>Ausreichend</t>
-  </si>
-  <si>
-    <t>Befriedigend</t>
-  </si>
-  <si>
-    <t>Sehr Gut</t>
-  </si>
-  <si>
-    <t>gering</t>
-  </si>
-  <si>
-    <t>Keine Nachtschicht</t>
+    <t>['ab Sofort']</t>
+  </si>
+  <si>
+    <t>ab Sofort'</t>
+  </si>
+  <si>
+    <t>37'</t>
+  </si>
+  <si>
+    <t>5 Sterne'</t>
+  </si>
+  <si>
+    <t>3 Sterne'</t>
+  </si>
+  <si>
+    <t>4 Sterne'</t>
+  </si>
+  <si>
+    <t>2 Sterne'</t>
+  </si>
+  <si>
+    <t>'2 Sterne'</t>
+  </si>
+  <si>
+    <t>'5 Sterne'</t>
+  </si>
+  <si>
+    <t>'3 Sterne'</t>
+  </si>
+  <si>
+    <t>'4 Sterne'</t>
+  </si>
+  <si>
+    <t>1 Stern'</t>
+  </si>
+  <si>
+    <t>'1 Stern'</t>
+  </si>
+  <si>
+    <t>Gut'</t>
+  </si>
+  <si>
+    <t>Sehr gut'</t>
+  </si>
+  <si>
+    <t>'Sehr gut'</t>
+  </si>
+  <si>
+    <t>'Gut'</t>
+  </si>
+  <si>
+    <t>Befriedigend'</t>
+  </si>
+  <si>
+    <t>'Befriedigend'</t>
+  </si>
+  <si>
+    <t>Mangelhaft'</t>
+  </si>
+  <si>
+    <t>'Mangelhaft'</t>
+  </si>
+  <si>
+    <t>in 3 Monaten'</t>
+  </si>
+  <si>
+    <t>38.000'</t>
+  </si>
+  <si>
+    <t>42.000'</t>
+  </si>
+  <si>
+    <t>3 Jahre'</t>
+  </si>
+  <si>
+    <t>Ausbildung zum Industriemechaniker'</t>
+  </si>
+  <si>
+    <t>29'</t>
+  </si>
+  <si>
+    <t>B1'</t>
+  </si>
+  <si>
+    <t>C1'</t>
+  </si>
+  <si>
+    <t>'ja'</t>
+  </si>
+  <si>
+    <t>wenig Erfahrung Heidenheim und Siemens'</t>
+  </si>
+  <si>
+    <t>Nur Serienfertigung'</t>
+  </si>
+  <si>
+    <t>flexibel'</t>
+  </si>
+  <si>
+    <t>keine Frühschicht'</t>
+  </si>
+  <si>
+    <t>['In einem Monat']</t>
+  </si>
+  <si>
+    <t>In einem Monat'</t>
+  </si>
+  <si>
+    <t>46.000'</t>
+  </si>
+  <si>
+    <t>11 Jahre'</t>
+  </si>
+  <si>
+    <t>Weiterbildung CNC-Fachkraft'</t>
+  </si>
+  <si>
+    <t>39'</t>
+  </si>
+  <si>
+    <t>C2'</t>
+  </si>
+  <si>
+    <t>'Muttersprachler/in'</t>
+  </si>
+  <si>
+    <t>nein'</t>
+  </si>
+  <si>
+    <t>'nein'</t>
+  </si>
+  <si>
+    <t>viel Erfahrung Heidenheim und Siemens, sowie weitere Erfahrungen'</t>
+  </si>
+  <si>
+    <t>viel Erfahrung unqualifiziert'</t>
+  </si>
+  <si>
+    <t>Nur Einzelteile'</t>
+  </si>
+  <si>
+    <t>Ausreichend'</t>
+  </si>
+  <si>
+    <t>gering'</t>
+  </si>
+  <si>
+    <t>Keine Nachtschicht'</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1025,21 +1064,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1319,35 +1363,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5070586-2DAE-4C07-9784-311351DEDD11}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="36.81640625" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" customWidth="1"/>
-    <col min="7" max="7" width="39.81640625" customWidth="1"/>
-    <col min="8" max="8" width="56.54296875" customWidth="1"/>
-    <col min="9" max="9" width="31.1796875" customWidth="1"/>
-    <col min="10" max="10" width="40.54296875" customWidth="1"/>
-    <col min="11" max="12" width="28.81640625" customWidth="1"/>
-    <col min="13" max="13" width="28.7265625" customWidth="1"/>
-    <col min="14" max="14" width="27.54296875" customWidth="1"/>
-    <col min="15" max="15" width="22.7265625" customWidth="1"/>
-    <col min="16" max="16" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.81640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="37.7265625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="8" max="8" width="56.5703125" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" customWidth="1"/>
+    <col min="11" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="8" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="22" width="17.7265625" customWidth="1"/>
+    <col min="21" max="22" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1363,1697 +1407,1980 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
         <v>4</v>
       </c>
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>7</v>
+      </c>
+      <c r="O1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" s="8">
+        <v>4</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>187</v>
       </c>
+      <c r="Q4" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="8">
+        <v>4</v>
+      </c>
+      <c r="T4" s="6">
+        <v>7</v>
+      </c>
+      <c r="U4" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="O4" t="s">
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="7">
-        <v>42000</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>38000</v>
-      </c>
-      <c r="R4" s="8">
-        <v>46000</v>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="S5" s="8">
+        <v>7</v>
+      </c>
+      <c r="T5" s="6">
+        <v>6</v>
+      </c>
+      <c r="U5" s="6">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="M5" t="s">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="S6" s="8">
+        <v>8</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="L6" t="s">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
         <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="S7" s="8">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6">
+        <v>7</v>
+      </c>
+      <c r="U7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="7">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>29</v>
-      </c>
-      <c r="R7" s="8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
         <v>76</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s">
+      <c r="Q8" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="S8" s="8">
+        <v>2</v>
+      </c>
+      <c r="T8" s="6">
+        <v>3</v>
+      </c>
+      <c r="U8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="J8" t="s">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
       <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H9" t="s">
+      <c r="Q9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="S9" s="8">
+        <v>8</v>
+      </c>
+      <c r="T9" s="6">
+        <v>6</v>
+      </c>
+      <c r="U9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>86</v>
       </c>
-      <c r="I9" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>79</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>94</v>
+        <v>32</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="8">
+        <v>3</v>
+      </c>
+      <c r="T10" s="6">
+        <v>3</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
       </c>
       <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="S11" s="8">
+        <v>2</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
         <v>93</v>
       </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="G12" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>192</v>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="S12" s="8">
+        <v>6</v>
+      </c>
+      <c r="T12" s="6">
+        <v>5</v>
+      </c>
+      <c r="U12" s="6">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>101</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
         <v>102</v>
       </c>
-      <c r="N12" t="s">
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
         <v>103</v>
       </c>
-      <c r="O12" t="s">
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
         <v>104</v>
       </c>
-      <c r="P12" t="s">
+      <c r="L13" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>193</v>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="S13" s="8">
+        <v>4</v>
+      </c>
+      <c r="T13" s="6">
+        <v>4</v>
+      </c>
+      <c r="U13" s="6">
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>108</v>
       </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" t="s">
-        <v>94</v>
+        <v>32</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>192</v>
+        <v>207</v>
+      </c>
+      <c r="S14" s="8">
+        <v>5</v>
+      </c>
+      <c r="T14" s="6">
+        <v>5</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
       </c>
       <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="S15" s="8">
+        <v>7</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3</v>
+      </c>
+      <c r="U15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>117</v>
       </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="G16" t="s">
         <v>118</v>
       </c>
-      <c r="K15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="H16" t="s">
         <v>119</v>
       </c>
-      <c r="O15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
         <v>120</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>195</v>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S16" s="8">
+        <v>8</v>
+      </c>
+      <c r="T16" s="6">
+        <v>6</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="S17" s="8">
+        <v>3</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
         <v>121</v>
       </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
         <v>122</v>
       </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" t="s">
-        <v>126</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="P18" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="S18" s="8">
+        <v>6</v>
+      </c>
+      <c r="T18" s="6">
+        <v>2</v>
+      </c>
+      <c r="U18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
         <v>127</v>
       </c>
-      <c r="P16" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="8">
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S19" s="8">
+        <v>2</v>
+      </c>
+      <c r="T19" s="6">
         <v>4</v>
       </c>
-      <c r="R16" s="8">
+      <c r="U19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>130</v>
       </c>
-      <c r="K17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" t="s">
-        <v>127</v>
-      </c>
-      <c r="N17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="8">
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="S20" s="8">
+        <v>6</v>
+      </c>
+      <c r="T20" s="6">
+        <v>8</v>
+      </c>
+      <c r="U20" s="6">
         <v>2</v>
       </c>
-      <c r="R17" s="8">
-        <v>5</v>
-      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
         <v>131</v>
       </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
         <v>132</v>
       </c>
-      <c r="I18" t="s">
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
         <v>133</v>
       </c>
-      <c r="J18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" t="s">
-        <v>127</v>
-      </c>
-      <c r="P18" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>2</v>
-      </c>
-      <c r="R18" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="H21" t="s">
         <v>134</v>
       </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>4</v>
-      </c>
-      <c r="R19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="I21" t="s">
         <v>135</v>
       </c>
-      <c r="B20" t="s">
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
         <v>137</v>
       </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
         <v>138</v>
       </c>
-      <c r="H20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" t="s">
-        <v>142</v>
-      </c>
-      <c r="N20" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" t="s">
-        <v>143</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>146</v>
+      <c r="P21" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>184</v>
       </c>
+      <c r="S21" s="8">
+        <v>8</v>
+      </c>
+      <c r="T21" s="6">
+        <v>6</v>
+      </c>
+      <c r="U21" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="S22" s="8">
+        <v>3</v>
+      </c>
+      <c r="T22" s="6">
+        <v>5</v>
+      </c>
+      <c r="U22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
         <v>136</v>
       </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
         <v>137</v>
       </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" s="6" t="s">
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="S23" s="8">
+        <v>8</v>
+      </c>
+      <c r="T23" s="6">
+        <v>4</v>
+      </c>
+      <c r="U23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
         <v>144</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>197</v>
+      <c r="H24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S24" s="8">
+        <v>4</v>
+      </c>
+      <c r="T24" s="6">
+        <v>8</v>
+      </c>
+      <c r="U24" s="6">
+        <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
         <v>137</v>
       </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" t="s">
-        <v>143</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" t="s">
-        <v>143</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" t="s">
-        <v>142</v>
-      </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O25" t="s">
-        <v>143</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>184</v>
       </c>
+      <c r="S25" s="8">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>4</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="S26" s="8">
+        <v>3</v>
+      </c>
+      <c r="T26" s="6">
+        <v>4</v>
+      </c>
+      <c r="U26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
         <v>148</v>
       </c>
-      <c r="H26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" t="s">
-        <v>156</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" t="s">
         <v>138</v>
       </c>
-      <c r="H27" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" t="s">
-        <v>161</v>
-      </c>
-      <c r="J27" t="s">
-        <v>143</v>
-      </c>
       <c r="K27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O27" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>154</v>
+        <v>32</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>184</v>
       </c>
       <c r="R27" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S27" s="8">
+        <v>2</v>
+      </c>
+      <c r="T27" s="6">
+        <v>1</v>
+      </c>
+      <c r="U27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="11" t="s">
         <v>183</v>
       </c>
+      <c r="Q28" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="S28" s="8">
+        <v>0</v>
+      </c>
+      <c r="T28" s="6">
+        <v>2</v>
+      </c>
+      <c r="U28" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" t="s">
-        <v>143</v>
-      </c>
-      <c r="K28" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" t="s">
         <v>138</v>
       </c>
-      <c r="H29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" t="s">
-        <v>143</v>
-      </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>146</v>
+        <v>32</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>184</v>
       </c>
+      <c r="S29" s="8">
+        <v>4</v>
+      </c>
+      <c r="T29" s="6">
+        <v>3</v>
+      </c>
+      <c r="U29" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>36</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>199</v>
+        <v>32</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S30" s="8">
+        <v>4</v>
+      </c>
+      <c r="T30" s="6">
+        <v>6</v>
+      </c>
+      <c r="U30" s="6">
+        <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O31" t="s">
-        <v>36</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>200</v>
+        <v>32</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="S31" s="8">
+        <v>6</v>
+      </c>
+      <c r="T31" s="6">
+        <v>2</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/vacancie_01/_static/applicants/metadata1.xlsx
+++ b/vacancie_01/_static/applicants/metadata1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21540b8bb60256b0/Bachelorarbeit/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C73F71D-925F-466F-9284-D768430FCE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0C73F71D-925F-466F-9284-D768430FCE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718C3061-7E0D-4F47-A9C9-0AE9A6AA8641}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -1055,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1067,20 +1067,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5070586-2DAE-4C07-9784-311351DEDD11}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,10 +1375,10 @@
     <col min="13" max="13" width="28.7109375" customWidth="1"/>
     <col min="14" max="14" width="27.5703125" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.85546875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="6" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="22" width="17.7109375" customWidth="1"/>
   </cols>
@@ -1481,14 +1473,14 @@
       <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -1544,16 +1536,16 @@
       <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <v>4</v>
       </c>
       <c r="T3" s="6">
@@ -1609,16 +1601,16 @@
       <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <v>4</v>
       </c>
       <c r="T4" s="6">
@@ -1674,20 +1666,20 @@
       <c r="O5" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>7</v>
       </c>
       <c r="T5" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" s="6">
         <v>8</v>
@@ -1739,16 +1731,16 @@
       <c r="O6" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <v>8</v>
       </c>
       <c r="T6" s="6">
@@ -1804,16 +1796,16 @@
       <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <v>2</v>
       </c>
       <c r="T7" s="6">
@@ -1869,16 +1861,16 @@
       <c r="O8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <v>2</v>
       </c>
       <c r="T8" s="6">
@@ -1934,16 +1926,16 @@
       <c r="O9" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="6">
         <v>8</v>
       </c>
       <c r="T9" s="6">
@@ -1999,16 +1991,16 @@
       <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <v>3</v>
       </c>
       <c r="T10" s="6">
@@ -2064,16 +2056,16 @@
       <c r="O11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="6">
         <v>2</v>
       </c>
       <c r="T11" s="6">
@@ -2129,16 +2121,16 @@
       <c r="O12" t="s">
         <v>99</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="6">
         <v>6</v>
       </c>
       <c r="T12" s="6">
@@ -2194,16 +2186,16 @@
       <c r="O13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="6">
         <v>4</v>
       </c>
       <c r="T13" s="6">
@@ -2259,16 +2251,16 @@
       <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="6">
         <v>5</v>
       </c>
       <c r="T14" s="6">
@@ -2324,16 +2316,16 @@
       <c r="O15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="6">
         <v>7</v>
       </c>
       <c r="T15" s="6">
@@ -2389,16 +2381,16 @@
       <c r="O16" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="6">
         <v>8</v>
       </c>
       <c r="T16" s="6">
@@ -2454,16 +2446,16 @@
       <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="6">
         <v>3</v>
       </c>
       <c r="T17" s="6">
@@ -2519,16 +2511,16 @@
       <c r="O18" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="6">
         <v>6</v>
       </c>
       <c r="T18" s="6">
@@ -2584,16 +2576,16 @@
       <c r="O19" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="6">
         <v>2</v>
       </c>
       <c r="T19" s="6">
@@ -2649,16 +2641,16 @@
       <c r="O20" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="6">
         <v>6</v>
       </c>
       <c r="T20" s="6">
@@ -2714,16 +2706,16 @@
       <c r="O21" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="6">
         <v>8</v>
       </c>
       <c r="T21" s="6">
@@ -2779,16 +2771,16 @@
       <c r="O22" t="s">
         <v>32</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="6">
         <v>3</v>
       </c>
       <c r="T22" s="6">
@@ -2844,16 +2836,16 @@
       <c r="O23" t="s">
         <v>138</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="6">
         <v>8</v>
       </c>
       <c r="T23" s="6">
@@ -2909,16 +2901,16 @@
       <c r="O24" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="6">
         <v>4</v>
       </c>
       <c r="T24" s="6">
@@ -2974,16 +2966,16 @@
       <c r="O25" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="6">
         <v>1</v>
       </c>
       <c r="T25" s="6">
@@ -3039,16 +3031,16 @@
       <c r="O26" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="6">
         <v>3</v>
       </c>
       <c r="T26" s="6">
@@ -3104,16 +3096,16 @@
       <c r="O27" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="6">
         <v>2</v>
       </c>
       <c r="T27" s="6">
@@ -3169,16 +3161,16 @@
       <c r="O28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="6">
         <v>0</v>
       </c>
       <c r="T28" s="6">
@@ -3234,16 +3226,16 @@
       <c r="O29" t="s">
         <v>32</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="6">
         <v>4</v>
       </c>
       <c r="T29" s="6">
@@ -3299,16 +3291,16 @@
       <c r="O30" t="s">
         <v>32</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="6">
         <v>4</v>
       </c>
       <c r="T30" s="6">
@@ -3364,16 +3356,16 @@
       <c r="O31" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S31" s="6">
         <v>6</v>
       </c>
       <c r="T31" s="6">
